--- a/Inputs.xlsx
+++ b/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pujitha.t\Documents\UiPath\HACKATHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE59DF10-FF6A-4CDF-97E0-9E3E68FF9355}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC66E654-E2E7-462E-9464-432462B5E518}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,16 +33,16 @@
     <t>Folder Path</t>
   </si>
   <si>
-    <t>C:\Users\Pujitha.t\Documents\UiPath\HACKATHON\Email Saparation Automation\Email Saparation.xaml</t>
-  </si>
-  <si>
     <t>Segregate Outlook Mails</t>
   </si>
   <si>
     <t>Review Product</t>
   </si>
   <si>
-    <t>C:\Users\Pujitha.t\Documents\UiPath\HACKATHON\Reviews Analysis\Reviews Analysis.xaml</t>
+    <t>C:\Users\Pujitha.t\Documents\UiPath\HACKATHON\Email Saparation Automation\EmailSaparation.xaml</t>
+  </si>
+  <si>
+    <t>C:\Users\Pujitha.t\Documents\UiPath\HACKATHON\Reviews Analysis\ReviewsAnalysis.xaml</t>
   </si>
 </sst>
 </file>
@@ -414,15 +414,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
